--- a/excels/pings/alpha01_count20_cambridge.xlsx
+++ b/excels/pings/alpha01_count20_cambridge.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="12">
   <si>
     <t>ip</t>
   </si>
@@ -40,10 +40,19 @@
     <t>ertt</t>
   </si>
   <si>
+    <t>rttAvg</t>
+  </si>
+  <si>
     <t>throughput</t>
   </si>
   <si>
     <t>www.cam.ac.uk</t>
+  </si>
+  <si>
+    <t>No se han perdido paquetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> no se puede calcular el throughput</t>
   </si>
 </sst>
 </file>
@@ -869,20 +878,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -907,10 +918,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -919,24 +933,30 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.26947784423799997</v>
+        <v>0.27156400680499998</v>
       </c>
       <c r="H2" s="1">
-        <v>6.0975984024200001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -945,24 +965,30 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.28004002571100001</v>
+        <v>0.26284790039099998</v>
       </c>
       <c r="H3" s="1">
-        <v>5.5512178002699999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -971,24 +997,30 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.30842494964599998</v>
+        <v>0.28109884262099999</v>
       </c>
       <c r="H4" s="1">
-        <v>4.91381925607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -997,24 +1029,30 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.29318308830299999</v>
+        <v>0.264755964279</v>
       </c>
       <c r="H5" s="1">
-        <v>5.48657428888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1023,24 +1061,27 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.29581499099699998</v>
+        <v>0.26700115203899999</v>
       </c>
       <c r="H6" s="1">
-        <v>5.0850408731499996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43.274045524100003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1049,24 +1090,27 @@
         <v>109</v>
       </c>
       <c r="D7">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F7" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G7" s="1">
-        <v>0.28881311416599997</v>
+        <v>0.25492811202999999</v>
       </c>
       <c r="H7" s="1">
-        <v>5.2916723915399997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I7" s="1">
+        <v>50.158108302499997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1075,24 +1119,27 @@
         <v>129</v>
       </c>
       <c r="D8">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F8" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G8" s="1">
-        <v>0.26954889297500001</v>
+        <v>0.26564002037000001</v>
       </c>
       <c r="H8" s="1">
-        <v>5.8432656483900001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I8" s="1">
+        <v>52.365708012799999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1101,24 +1148,27 @@
         <v>149</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F9" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G9" s="1">
-        <v>0.26995611190800001</v>
+        <v>0.26566481590300001</v>
       </c>
       <c r="H9" s="1">
-        <v>6.0423510886200003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I9" s="1">
+        <v>56.273603024700002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0.1</v>
@@ -1127,24 +1177,30 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.27199370098100001</v>
+        <v>0.27077462730099999</v>
       </c>
       <c r="H10" s="1">
-        <v>6.0411975225500001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.1</v>
@@ -1153,24 +1209,30 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F11" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>0.281731326585</v>
+        <v>0.26206566488600003</v>
       </c>
       <c r="H11" s="1">
-        <v>5.5178925054499999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0.1</v>
@@ -1179,24 +1241,30 @@
         <v>49</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F12" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.30930815156699998</v>
+        <v>0.280786562302</v>
       </c>
       <c r="H12" s="1">
-        <v>4.8997882821500003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1205,24 +1273,30 @@
         <v>69</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.29238598199799998</v>
+        <v>0.26434791529500001</v>
       </c>
       <c r="H13" s="1">
-        <v>5.5015318560199997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0.1</v>
@@ -1231,24 +1305,27 @@
         <v>89</v>
       </c>
       <c r="D14">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F14" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G14" s="1">
-        <v>0.29547209009699998</v>
+        <v>0.26821091876300002</v>
       </c>
       <c r="H14" s="1">
-        <v>5.0909421584199999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43.0788577199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0.1</v>
@@ -1257,24 +1334,27 @@
         <v>109</v>
       </c>
       <c r="D15">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F15" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>0.28878298934699997</v>
+        <v>0.25495651030900002</v>
       </c>
       <c r="H15" s="1">
-        <v>5.2922244000700003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I15" s="1">
+        <v>50.152521451699997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>0.1</v>
@@ -1283,24 +1363,27 @@
         <v>129</v>
       </c>
       <c r="D16">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G16" s="1">
-        <v>0.27340916318199998</v>
+        <v>0.26460962417599998</v>
       </c>
       <c r="H16" s="1">
-        <v>5.7607644474899997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I16" s="1">
+        <v>52.569621330099999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -1309,24 +1392,27 @@
         <v>149</v>
       </c>
       <c r="D17">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F17" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>0.27318956250100002</v>
+        <v>0.26625666811299997</v>
       </c>
       <c r="H17" s="1">
-        <v>5.9708342871399998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I17" s="1">
+        <v>56.148514490399997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>0.2</v>
@@ -1335,24 +1421,30 @@
         <v>9</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1">
-        <v>0.27496704673799999</v>
+        <v>0.27021302550300003</v>
       </c>
       <c r="H18" s="1">
-        <v>5.9758712617</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0.2</v>
@@ -1361,24 +1453,30 @@
         <v>29</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
-        <v>0.28303779332099999</v>
+        <v>0.261539517359</v>
       </c>
       <c r="H19" s="1">
-        <v>5.4924226099800002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>0.2</v>
@@ -1387,24 +1485,30 @@
         <v>49</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>0.30951528122799998</v>
+        <v>0.28023681666700001</v>
       </c>
       <c r="H20" s="1">
-        <v>4.89650931163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0.2</v>
@@ -1413,24 +1517,30 @@
         <v>69</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F21" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
-        <v>0.29199801874499998</v>
+        <v>0.26389697493199998</v>
       </c>
       <c r="H21" s="1">
-        <v>5.50884146793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>0.2</v>
@@ -1439,24 +1549,27 @@
         <v>89</v>
       </c>
       <c r="D22">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G22" s="1">
-        <v>0.29505159654699997</v>
+        <v>0.26922428305000001</v>
       </c>
       <c r="H22" s="1">
-        <v>5.09819752788</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I22" s="1">
+        <v>42.916708245599999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>0.2</v>
@@ -1465,24 +1578,27 @@
         <v>109</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G23" s="1">
-        <v>0.28854142876</v>
+        <v>0.25558117393599999</v>
       </c>
       <c r="H23" s="1">
-        <v>5.2966549348400003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I23" s="1">
+        <v>50.029944129299999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>0.2</v>
@@ -1491,24 +1607,27 @@
         <v>129</v>
       </c>
       <c r="D24">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F24" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G24" s="1">
-        <v>0.27701979841300001</v>
+        <v>0.26378719380900001</v>
       </c>
       <c r="H24" s="1">
-        <v>5.6856794925900003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I24" s="1">
+        <v>52.733521830100003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -1517,24 +1636,27 @@
         <v>149</v>
       </c>
       <c r="D25">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G25" s="1">
-        <v>0.27601652913199998</v>
+        <v>0.26706291161500001</v>
       </c>
       <c r="H25" s="1">
-        <v>5.9096808868500004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I25" s="1">
+        <v>55.9790062099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>0.3</v>
@@ -1543,24 +1665,30 @@
         <v>9</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1">
-        <v>0.27892856979399999</v>
+        <v>0.27002170661699998</v>
       </c>
       <c r="H26" s="1">
-        <v>5.8909980922000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>0.3</v>
@@ -1569,24 +1697,30 @@
         <v>29</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F27" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1">
-        <v>0.28393899778499998</v>
+        <v>0.26129991714299999</v>
       </c>
       <c r="H27" s="1">
-        <v>5.4749900071599997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>0.3</v>
@@ -1595,24 +1729,30 @@
         <v>49</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F28" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1">
-        <v>0.30899218571600001</v>
+        <v>0.27946793635</v>
       </c>
       <c r="H28" s="1">
-        <v>4.9047986540900004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>0.3</v>
@@ -1621,24 +1761,30 @@
         <v>69</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F29" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0.29208841729000001</v>
+        <v>0.26348725821800001</v>
       </c>
       <c r="H29" s="1">
-        <v>5.5071365346799999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>0.3</v>
@@ -1647,24 +1793,27 @@
         <v>89</v>
       </c>
       <c r="D30">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F30" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G30" s="1">
-        <v>0.29469701888499999</v>
+        <v>0.26994423498999998</v>
       </c>
       <c r="H30" s="1">
-        <v>5.1043316481599996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I30" s="1">
+        <v>42.8022476891</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31">
         <v>0.3</v>
@@ -1673,24 +1822,27 @@
         <v>109</v>
       </c>
       <c r="D31">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F31" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G31" s="1">
-        <v>0.28815662790699997</v>
+        <v>0.25668223430699999</v>
       </c>
       <c r="H31" s="1">
-        <v>5.3037280233699997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I31" s="1">
+        <v>49.815336410299999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32">
         <v>0.3</v>
@@ -1699,24 +1851,27 @@
         <v>129</v>
       </c>
       <c r="D32">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E32">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G32" s="1">
-        <v>0.28021071503299999</v>
+        <v>0.26317014983100001</v>
       </c>
       <c r="H32" s="1">
-        <v>5.6209334703499998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I32" s="1">
+        <v>52.857163900099998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33">
         <v>0.3</v>
@@ -1725,24 +1880,27 @@
         <v>149</v>
       </c>
       <c r="D33">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F33" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G33" s="1">
-        <v>0.27839469996900001</v>
+        <v>0.26800314979200002</v>
       </c>
       <c r="H33" s="1">
-        <v>5.8591977751400002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I33" s="1">
+        <v>55.782614492900002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34">
         <v>0.4</v>
@@ -1751,24 +1909,30 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G34" s="1">
-        <v>0.28440895843500003</v>
+        <v>0.270248905062</v>
       </c>
       <c r="H34" s="1">
-        <v>5.7774821213700003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>0.4</v>
@@ -1777,24 +1941,30 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F35" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G35" s="1">
-        <v>0.28442066574699998</v>
+        <v>0.26136280357500002</v>
       </c>
       <c r="H35" s="1">
-        <v>5.4657180814700004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36">
         <v>0.4</v>
@@ -1803,24 +1973,30 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G36" s="1">
-        <v>0.30769379207000003</v>
+        <v>0.27849440828299998</v>
       </c>
       <c r="H36" s="1">
-        <v>4.92549572231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37">
         <v>0.4</v>
@@ -1829,24 +2005,30 @@
         <v>69</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F37" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G37" s="1">
-        <v>0.29262362726800001</v>
+        <v>0.26319658739899998</v>
       </c>
       <c r="H37" s="1">
-        <v>5.4970639562899999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>0.4</v>
@@ -1855,24 +2037,27 @@
         <v>89</v>
       </c>
       <c r="D38">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F38" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G38" s="1">
-        <v>0.294538445506</v>
+        <v>0.27027569549699998</v>
       </c>
       <c r="H38" s="1">
-        <v>5.1070797142600002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I38" s="1">
+        <v>42.749755900300002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39">
         <v>0.4</v>
@@ -1881,24 +2066,27 @@
         <v>109</v>
       </c>
       <c r="D39">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F39" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G39" s="1">
-        <v>0.28769322492100002</v>
+        <v>0.25813630549400002</v>
       </c>
       <c r="H39" s="1">
-        <v>5.3122710239900002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I39" s="1">
+        <v>49.53472867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>0.4</v>
@@ -1907,24 +2095,27 @@
         <v>129</v>
       </c>
       <c r="D40">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F40" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G40" s="1">
-        <v>0.28282050931699998</v>
+        <v>0.26278114799399999</v>
       </c>
       <c r="H40" s="1">
-        <v>5.5690649546</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I40" s="1">
+        <v>52.935409748600001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41">
         <v>0.4</v>
@@ -1933,24 +2124,27 @@
         <v>149</v>
       </c>
       <c r="D41">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F41" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G41" s="1">
-        <v>0.280287076947</v>
+        <v>0.26900957078299997</v>
       </c>
       <c r="H41" s="1">
-        <v>5.8196390088100003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I41" s="1">
+        <v>55.573920080999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42">
         <v>0.5</v>
@@ -1959,24 +2153,30 @@
         <v>9</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G42" s="1">
-        <v>0.29193890094800001</v>
+        <v>0.27085472177699998</v>
       </c>
       <c r="H42" s="1">
-        <v>5.6284642683200001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43">
         <v>0.5</v>
@@ -1985,24 +2185,30 @@
         <v>29</v>
       </c>
       <c r="D43">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F43" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0.28453668672600002</v>
+        <v>0.26173144894099998</v>
       </c>
       <c r="H43" s="1">
-        <v>5.4634894129199996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>0.5</v>
@@ -2011,24 +2217,30 @@
         <v>49</v>
       </c>
       <c r="D44">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F44" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0.30558936805800002</v>
+        <v>0.27731345718599998</v>
       </c>
       <c r="H44" s="1">
-        <v>4.95941487185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>0.5</v>
@@ -2037,24 +2249,30 @@
         <v>69</v>
       </c>
       <c r="D45">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F45" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0.29344049950099999</v>
+        <v>0.26309557065200001</v>
       </c>
       <c r="H45" s="1">
-        <v>5.48176136884</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46">
         <v>0.5</v>
@@ -2063,24 +2281,27 @@
         <v>89</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F46" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G46" s="1">
-        <v>0.29462774524899998</v>
+        <v>0.270127201436</v>
       </c>
       <c r="H46" s="1">
-        <v>5.1055317917899998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I46" s="1">
+        <v>42.773256254400003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47">
         <v>0.5</v>
@@ -2089,24 +2310,27 @@
         <v>109</v>
       </c>
       <c r="D47">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F47" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G47" s="1">
-        <v>0.28726042403399998</v>
+        <v>0.25983084176499999</v>
       </c>
       <c r="H47" s="1">
-        <v>5.3202747565599999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I47" s="1">
+        <v>49.211678512399999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>0.5</v>
@@ -2115,24 +2339,27 @@
         <v>129</v>
       </c>
       <c r="D48">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F48" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G48" s="1">
-        <v>0.28471042783599998</v>
+        <v>0.26268056981799998</v>
       </c>
       <c r="H48" s="1">
-        <v>5.5320972921499996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I48" s="1">
+        <v>52.955678270699998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>0.5</v>
@@ -2141,24 +2368,27 @@
         <v>149</v>
       </c>
       <c r="D49">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F49" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G49" s="1">
-        <v>0.281697245491</v>
+        <v>0.27008126513699998</v>
       </c>
       <c r="H49" s="1">
-        <v>5.7905060584700001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I49" s="1">
+        <v>55.3534003189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50">
         <v>0.6</v>
@@ -2167,24 +2397,30 @@
         <v>9</v>
       </c>
       <c r="D50">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F50" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G50" s="1">
-        <v>0.302049085617</v>
+        <v>0.27177055894399998</v>
       </c>
       <c r="H50" s="1">
-        <v>5.4400683556400002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51">
         <v>0.6</v>
@@ -2193,24 +2429,30 @@
         <v>29</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G51" s="1">
-        <v>0.28464722756900002</v>
+        <v>0.26238898880400002</v>
       </c>
       <c r="H51" s="1">
-        <v>5.4613677034299997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52">
         <v>0.6</v>
@@ -2219,24 +2461,30 @@
         <v>49</v>
       </c>
       <c r="D52">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F52" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G52" s="1">
-        <v>0.302677069134</v>
+        <v>0.27589025774800002</v>
       </c>
       <c r="H52" s="1">
-        <v>5.0071333813200001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <v>0.6</v>
@@ -2245,24 +2493,30 @@
         <v>69</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F53" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G53" s="1">
-        <v>0.29425611360199999</v>
+        <v>0.26322467894099999</v>
       </c>
       <c r="H53" s="1">
-        <v>5.4665671157200002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54">
         <v>0.6</v>
@@ -2271,24 +2525,27 @@
         <v>89</v>
       </c>
       <c r="D54">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E54">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F54" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G54" s="1">
-        <v>0.29487966455999998</v>
+        <v>0.26942301597500001</v>
       </c>
       <c r="H54" s="1">
-        <v>5.1011700734199996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I54" s="1">
+        <v>42.885051844800003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55">
         <v>0.6</v>
@@ -2297,24 +2554,27 @@
         <v>109</v>
       </c>
       <c r="D55">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F55" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G55" s="1">
-        <v>0.28705551745399999</v>
+        <v>0.26167834791200001</v>
       </c>
       <c r="H55" s="1">
-        <v>5.3240724864100004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I55" s="1">
+        <v>48.8642333405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56">
         <v>0.6</v>
@@ -2323,24 +2583,27 @@
         <v>129</v>
       </c>
       <c r="D56">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E56">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G56" s="1">
-        <v>0.28577477504400001</v>
+        <v>0.26298483052299998</v>
       </c>
       <c r="H56" s="1">
-        <v>5.5114934011900001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I56" s="1">
+        <v>52.894411117200001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57">
         <v>0.6</v>
@@ -2349,24 +2612,27 @@
         <v>149</v>
       </c>
       <c r="D57">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F57" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G57" s="1">
-        <v>0.28272322322799998</v>
+        <v>0.27142318774800001</v>
       </c>
       <c r="H57" s="1">
-        <v>5.76949282074</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I57" s="1">
+        <v>55.079731808399998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58">
         <v>0.7</v>
@@ -2375,24 +2641,30 @@
         <v>9</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0.31527020072900003</v>
+        <v>0.27306175643000002</v>
       </c>
       <c r="H58" s="1">
-        <v>5.2119346158099997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
         <v>0.7</v>
@@ -2401,24 +2673,30 @@
         <v>29</v>
       </c>
       <c r="D59">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F59" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0.28611723435899999</v>
+        <v>0.26329608707199997</v>
       </c>
       <c r="H59" s="1">
-        <v>5.4333084094000004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60">
         <v>0.7</v>
@@ -2427,24 +2705,30 @@
         <v>49</v>
       </c>
       <c r="D60">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F60" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0.29916099730200002</v>
+        <v>0.27416449260100001</v>
       </c>
       <c r="H60" s="1">
-        <v>5.0659827661100003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>0.7</v>
@@ -2453,24 +2737,30 @@
         <v>69</v>
       </c>
       <c r="D61">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F61" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G61" s="1">
-        <v>0.29474736693199999</v>
+        <v>0.26356099440000003</v>
       </c>
       <c r="H61" s="1">
-        <v>5.4574560273800001</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
         <v>0.7</v>
@@ -2479,24 +2769,27 @@
         <v>89</v>
       </c>
       <c r="D62">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E62">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F62" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G62" s="1">
-        <v>0.295067654151</v>
+        <v>0.26815876819500001</v>
       </c>
       <c r="H62" s="1">
-        <v>5.09792008358</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I62" s="1">
+        <v>43.0872355435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63">
         <v>0.7</v>
@@ -2505,24 +2798,27 @@
         <v>109</v>
       </c>
       <c r="D63">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F63" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G63" s="1">
-        <v>0.28738391387099999</v>
+        <v>0.26360181108800002</v>
       </c>
       <c r="H63" s="1">
-        <v>5.3179886165500001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I63" s="1">
+        <v>48.507678303799999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64">
         <v>0.7</v>
@@ -2531,24 +2827,27 @@
         <v>129</v>
       </c>
       <c r="D64">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F64" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G64" s="1">
-        <v>0.28596784799500002</v>
+        <v>0.26384148035999999</v>
       </c>
       <c r="H64" s="1">
-        <v>5.5077722825300004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I64" s="1">
+        <v>52.722671675000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65">
         <v>0.7</v>
@@ -2557,24 +2856,27 @@
         <v>149</v>
       </c>
       <c r="D65">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F65" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G65" s="1">
-        <v>0.28362521747199998</v>
+        <v>0.273663569981</v>
       </c>
       <c r="H65" s="1">
-        <v>5.7511444899299997</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I65" s="1">
+        <v>54.628814455600001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66">
         <v>0.8</v>
@@ -2583,24 +2885,30 @@
         <v>9</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F66" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G66" s="1">
-        <v>0.33213293456999998</v>
+        <v>0.27525763450599999</v>
       </c>
       <c r="H66" s="1">
-        <v>4.9473192853999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67">
         <v>0.8</v>
@@ -2609,24 +2917,30 @@
         <v>29</v>
       </c>
       <c r="D67">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F67" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G67" s="1">
-        <v>0.29303169651900002</v>
+        <v>0.264505613448</v>
       </c>
       <c r="H67" s="1">
-        <v>5.30510246495</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68">
         <v>0.8</v>
@@ -2635,24 +2949,30 @@
         <v>49</v>
       </c>
       <c r="D68">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F68" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G68" s="1">
-        <v>0.296816192581</v>
+        <v>0.27209546186</v>
       </c>
       <c r="H68" s="1">
-        <v>5.1060032926299996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69">
         <v>0.8</v>
@@ -2661,24 +2981,30 @@
         <v>69</v>
       </c>
       <c r="D69">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F69" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G69" s="1">
-        <v>0.29474191894599999</v>
+        <v>0.26409694430300001</v>
       </c>
       <c r="H69" s="1">
-        <v>5.4575569025500004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70">
         <v>0.8</v>
@@ -2687,24 +3013,27 @@
         <v>89</v>
       </c>
       <c r="D70">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E70">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F70" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G70" s="1">
-        <v>0.29495653335599997</v>
+        <v>0.26657763188</v>
       </c>
       <c r="H70" s="1">
-        <v>5.0998406544700003</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I70" s="1">
+        <v>43.342796343400003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>0.8</v>
@@ -2713,24 +3042,27 @@
         <v>109</v>
       </c>
       <c r="D71">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E71">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F71" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G71" s="1">
-        <v>0.28860560040299998</v>
+        <v>0.26542716938100003</v>
       </c>
       <c r="H71" s="1">
-        <v>5.2954772201700004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I71" s="1">
+        <v>48.174088140199999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72">
         <v>0.8</v>
@@ -2739,24 +3071,27 @@
         <v>129</v>
       </c>
       <c r="D72">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E72">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F72" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G72" s="1">
-        <v>0.285498824915</v>
+        <v>0.26523399215900001</v>
       </c>
       <c r="H72" s="1">
-        <v>5.5168205590700001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I72" s="1">
+        <v>52.445871021400002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73">
         <v>0.8</v>
@@ -2765,24 +3100,27 @@
         <v>149</v>
       </c>
       <c r="D73">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F73" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G73" s="1">
-        <v>0.28479038788400002</v>
+        <v>0.27781013509000002</v>
       </c>
       <c r="H73" s="1">
-        <v>5.7276146810600004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I73" s="1">
+        <v>53.813430467000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74">
         <v>0.9</v>
@@ -2791,24 +3129,30 @@
         <v>9</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F74" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G74" s="1">
-        <v>0.35316797542599998</v>
+        <v>0.27992744766599997</v>
       </c>
       <c r="H74" s="1">
-        <v>4.6526519584199999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75">
         <v>0.9</v>
@@ -2817,24 +3161,30 @@
         <v>29</v>
       </c>
       <c r="D75">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G75" s="1">
-        <v>0.31589924023100002</v>
+        <v>0.26742996034799998</v>
       </c>
       <c r="H75" s="1">
-        <v>4.9210728534100001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76">
         <v>0.9</v>
@@ -2843,24 +3193,30 @@
         <v>49</v>
       </c>
       <c r="D76">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F76" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G76" s="1">
-        <v>0.30635195659699999</v>
+        <v>0.26985077038499999</v>
       </c>
       <c r="H76" s="1">
-        <v>4.9470696171100004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77">
         <v>0.9</v>
@@ -2869,24 +3225,30 @@
         <v>69</v>
       </c>
       <c r="D77">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F77" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G77" s="1">
-        <v>0.297560811679</v>
+        <v>0.26530598362300001</v>
       </c>
       <c r="H77" s="1">
-        <v>5.4058556472600001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78">
         <v>0.9</v>
@@ -2895,24 +3257,27 @@
         <v>89</v>
       </c>
       <c r="D78">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E78">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F78" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G78" s="1">
-        <v>0.29738622961</v>
+        <v>0.265518271014</v>
       </c>
       <c r="H78" s="1">
-        <v>5.0581740858800002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I78" s="1">
+        <v>43.515724790500002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79">
         <v>0.9</v>
@@ -2921,24 +3286,27 @@
         <v>109</v>
       </c>
       <c r="D79">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E79">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F79" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G79" s="1">
-        <v>0.29202745852599998</v>
+        <v>0.26651889789700001</v>
       </c>
       <c r="H79" s="1">
-        <v>5.2334269875299997</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I79" s="1">
+        <v>47.976754944699998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80">
         <v>0.9</v>
@@ -2947,24 +3315,27 @@
         <v>129</v>
       </c>
       <c r="D80">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E80">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F80" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G80" s="1">
-        <v>0.28620999041200001</v>
+        <v>0.26652954502800003</v>
       </c>
       <c r="H80" s="1">
-        <v>5.5031125384899999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I80" s="1">
+        <v>52.190940939599997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81">
         <v>0.9</v>
@@ -2973,24 +3344,27 @@
         <v>149</v>
       </c>
       <c r="D81">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F81" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G81" s="1">
-        <v>0.28641006408800002</v>
+        <v>0.28269751022200001</v>
       </c>
       <c r="H81" s="1">
-        <v>5.6952244742499998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I81" s="1">
+        <v>52.883084735899999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2999,24 +3373,30 @@
         <v>9</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F82" s="1">
-        <v>0.555555555556</v>
+        <v>0</v>
       </c>
       <c r="G82" s="1">
-        <v>0.37890601158100001</v>
+        <v>0.29059505462599999</v>
       </c>
       <c r="H82" s="1">
-        <v>4.3366101943300004</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>0.27327926953600001</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3025,24 +3405,30 @@
         <v>29</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F83" s="1">
-        <v>0.62068965517200003</v>
+        <v>0</v>
       </c>
       <c r="G83" s="1">
-        <v>0.37890601158100001</v>
+        <v>0.29059505462599999</v>
       </c>
       <c r="H83" s="1">
-        <v>4.1027672509800004</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.26920846412900001</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3051,24 +3437,30 @@
         <v>49</v>
       </c>
       <c r="D84">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="F84" s="1">
-        <v>0.65306122449000004</v>
+        <v>0</v>
       </c>
       <c r="G84" s="1">
-        <v>0.37890601158100001</v>
+        <v>0.29059505462599999</v>
       </c>
       <c r="H84" s="1">
-        <v>3.9997899486900002</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.268947367765</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -3077,24 +3469,30 @@
         <v>69</v>
       </c>
       <c r="D85">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F85" s="1">
-        <v>0.57971014492799999</v>
+        <v>0</v>
       </c>
       <c r="G85" s="1">
-        <v>0.37890601158100001</v>
+        <v>0.29059505462599999</v>
       </c>
       <c r="H85" s="1">
-        <v>4.2453029116699996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>0.268085227496</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3103,24 +3501,27 @@
         <v>89</v>
       </c>
       <c r="D86">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="E86">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="F86" s="1">
-        <v>0.66292134831500005</v>
+        <v>1.12359550562E-2</v>
       </c>
       <c r="G86" s="1">
-        <v>0.37890601158100001</v>
+        <v>0.29059505462599999</v>
       </c>
       <c r="H86" s="1">
-        <v>3.96993257994</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.26759062300999997</v>
+      </c>
+      <c r="I86" s="1">
+        <v>39.760552784200001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3129,24 +3530,27 @@
         <v>109</v>
       </c>
       <c r="D87">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="F87" s="1">
-        <v>0.642201834862</v>
+        <v>9.1743119266099998E-3</v>
       </c>
       <c r="G87" s="1">
-        <v>0.37890601158100001</v>
+        <v>0.29059505462599999</v>
       </c>
       <c r="H87" s="1">
-        <v>4.0334656506700002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.26743938084000002</v>
+      </c>
+      <c r="I87" s="1">
+        <v>44.001821947700002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -3155,24 +3559,27 @@
         <v>129</v>
       </c>
       <c r="D88">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>51</v>
+        <v>128</v>
       </c>
       <c r="F88" s="1">
-        <v>0.60465116279099995</v>
+        <v>7.7519379845000002E-3</v>
       </c>
       <c r="G88" s="1">
-        <v>0.37890601158100001</v>
+        <v>0.29059505462599999</v>
       </c>
       <c r="H88" s="1">
-        <v>4.1568244861199997</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.26731351017999999</v>
+      </c>
+      <c r="I88" s="1">
+        <v>47.868769690999997</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3181,19 +3588,22 @@
         <v>149</v>
       </c>
       <c r="D89">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F89" s="1">
-        <v>0.56375838926199995</v>
+        <v>6.7114093959699996E-3</v>
       </c>
       <c r="G89" s="1">
-        <v>0.37890601158100001</v>
+        <v>0.29059505462599999</v>
       </c>
       <c r="H89" s="1">
-        <v>4.3049451758700004</v>
+        <v>0.27071937677000002</v>
+      </c>
+      <c r="I89" s="1">
+        <v>51.445873388800003</v>
       </c>
     </row>
   </sheetData>
